--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5805" yWindow="1530" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -428,13 +428,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Test1</t>
+          <t>Badland</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="F4" t="n">
-        <v>3.14</v>
+    <row r="2">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Hello World</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Badland</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -1,33 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvi\PycharmProjects\WebScrappingTool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42FA3B6-71FB-42F7-AB05-06A2C914548D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5805" yWindow="1530" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3720" yWindow="2970" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+  <si>
+    <t>This is Occupied</t>
+  </si>
+  <si>
+    <t>You have been juke</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +62,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,51 +364,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A12" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Badland</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Hello World</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Badland</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Test1</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvi\PycharmProjects\WebScrappingTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42FA3B6-71FB-42F7-AB05-06A2C914548D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D55AF1-67EC-4E51-8AB5-41BA5251A10E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="2970" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
-  <si>
-    <t>This is Occupied</t>
-  </si>
-  <si>
-    <t>You have been juke</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>$59.90</t>
+  </si>
+  <si>
+    <t>Hello there</t>
+  </si>
+  <si>
+    <t>Hello WhaaT?</t>
+  </si>
+  <si>
+    <t>$45.00</t>
+  </si>
+  <si>
+    <t>$219.0</t>
+  </si>
+  <si>
+    <t>$169.0</t>
+  </si>
+  <si>
+    <t>$39.90</t>
   </si>
 </sst>
 </file>
@@ -61,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,53 +384,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A9:A12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -1,67 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvi\PycharmProjects\WebScrappingTool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D55AF1-67EC-4E51-8AB5-41BA5251A10E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>$59.90</t>
-  </si>
-  <si>
-    <t>Hello there</t>
-  </si>
-  <si>
-    <t>Hello WhaaT?</t>
-  </si>
-  <si>
-    <t>$45.00</t>
-  </si>
-  <si>
-    <t>$219.0</t>
-  </si>
-  <si>
-    <t>$169.0</t>
-  </si>
-  <si>
-    <t>$39.90</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,22 +46,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -383,206 +408,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I1" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="32.33203125" customWidth="1" min="2" max="2"/>
+    <col width="38.109375" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">captcha </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">captcha </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">captcha </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">captcha </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">captcha </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">captcha </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">captcha </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">captcha </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">captcha </t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>$169.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+    <row r="19">
+      <c r="B19" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvi\PycharmProjects\WebScrappingTool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D804A6B5-BD67-4431-A492-04106BE80BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="936" yWindow="936" windowWidth="17280" windowHeight="9108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +55,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,91 +358,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I2"/>
+      <selection activeCell="I5" sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="32.33203125" customWidth="1" min="2" max="2"/>
-    <col width="38.109375" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">captcha </t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">captcha </t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">captcha </t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">captcha </t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">captcha </t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">captcha </t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">captcha </t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">captcha </t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">captcha </t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>$59.90</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>$169.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>$39.90</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="n"/>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2790" yWindow="825" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -416,60 +416,60 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="32.33203125" customWidth="1" min="2" max="2"/>
-    <col width="38.109375" customWidth="1" min="3" max="3"/>
+    <col width="32.28515625" customWidth="1" min="2" max="2"/>
+    <col width="38.140625" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">captcha </t>
+          <t xml:space="preserve">Stanley 750ml Stainless Steel Classic Vacuum Flask Water Bottle 25oz Black For Road Trip Camping Fishing Outdoor </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">captcha </t>
+          <t xml:space="preserve">Logitech MX Master 3 Advanced Wireless Mouse With Bluetooth, Ultra-Fast Magspeed Scroll, In App Customization and Pair up to 3 Devices (Work From Home, Home Based Learning) </t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve">captcha </t>
+          <t xml:space="preserve">CETAPHIL GENTLE SKIN CLEANSER 1L </t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">captcha </t>
+          <t xml:space="preserve">SanDisk Ultra SD UHS-I U1 (Up to 80MB/s Read) Memory Card SDSDUNR (32GB / 64GB / 128GB / 256GB) </t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">captcha </t>
+          <t xml:space="preserve">STANLEY Cordless 18V Brushless Hammer Drill Driver SBH201D2K </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">captcha </t>
+          <t xml:space="preserve">Xiaomi Mi Dual Mode Wireless Mouse Silent Edition </t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve">captcha </t>
+          <t xml:space="preserve">Apple iPhone SE: Buy sell online Smartphones  with cheap price </t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">captcha </t>
+          <t xml:space="preserve">Apple iPhone SE: Buy sell online Smartphones  with cheap price </t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve">captcha </t>
+          <t xml:space="preserve">Apple iPhone SE: Buy sell online Smartphones  with cheap price </t>
         </is>
       </c>
     </row>
@@ -489,7 +489,36 @@
           <t>$39.90</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>$219.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>$29.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>$889.0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>$719.0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>$889.0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="n"/>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2790" yWindow="825" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -15,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -45,9 +48,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,112 +418,270 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="32.28515625" customWidth="1" min="2" max="2"/>
-    <col width="38.140625" customWidth="1" min="3" max="3"/>
+    <col width="104.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="166" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="33.5703125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="92.85546875" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="59.5703125" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="48.42578125" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="59.140625" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="59.140625" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="59.140625" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="92.28515625" bestFit="1" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Stanley 750ml Stainless Steel Classic Vacuum Flask Water Bottle 25oz Black For Road Trip Camping Fishing Outdoor </t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t xml:space="preserve">Logitech MX Master 3 Advanced Wireless Mouse With Bluetooth, Ultra-Fast Magspeed Scroll, In App Customization and Pair up to 3 Devices (Work From Home, Home Based Learning) </t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t xml:space="preserve">CETAPHIL GENTLE SKIN CLEANSER 1L </t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t xml:space="preserve">SanDisk Ultra SD UHS-I U1 (Up to 80MB/s Read) Memory Card SDSDUNR (32GB / 64GB / 128GB / 256GB) </t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t xml:space="preserve">STANLEY Cordless 18V Brushless Hammer Drill Driver SBH201D2K </t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t xml:space="preserve">Xiaomi Mi Dual Mode Wireless Mouse Silent Edition </t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t xml:space="preserve">Apple iPhone SE: Buy sell online Smartphones  with cheap price </t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t xml:space="preserve">Apple iPhone SE: Buy sell online Smartphones  with cheap price </t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t xml:space="preserve">Apple iPhone SE: Buy sell online Smartphones  with cheap price </t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRISM+ X240 (1200R) 24 144Hz 1ms Curved FHD [1920 x 1080] FreeSync G-Sync Ready Gaming Monitor </t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="n">
+        <v>44201</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>$59.90</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$169.0</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$39.90</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>$45.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>$219.0</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>$29.90</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>$889.0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>$719.0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>$889.0</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>$369.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>44201</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>$169.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>$219.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>$29.90</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>$889.0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>$719.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>$889.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>$369.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>44201</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>$169.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>$219.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>$29.90</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>$889.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>$719.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>$889.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>$369.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="1" t="n"/>
@@ -526,4 +689,38 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16.140625" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DATE EXTRACTED</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ITEM</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -16,8 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -48,11 +49,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,25 +665,474 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
+      <c r="A5" s="3" t="n">
+        <v>44201</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$169.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>$219.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>$29.90</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>$889.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>$719.0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>$889.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>$369.0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
+      <c r="A6" s="3" t="n">
+        <v>44201</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$169.0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>$219.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>$29.90</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>$889.0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>$719.0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>$889.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>$369.0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
+      <c r="A7" s="3" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$169.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>$219.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>$24.90
+$29.90-17%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>$289.00
+$369.00-22%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
+      <c r="A8" s="3" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$169.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>$219.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>$24.90
+$29.90-17%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>$709.00
+$719.00-1%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>$289.00
+$369.00-22%</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
+      <c r="A9" s="3" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$169.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>$219.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>$24.90
+$29.90-17%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>$289.00
+$369.00-22%</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
+      <c r="A10" s="3" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$169.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>$219.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>$24.90
+$29.90-17%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>$709.00
+$719.00-1%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>$289.00
+$369.00-22%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
+      <c r="A11" s="3" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$169.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>$219.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>$24.90
+$29.90-17%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>$709.00
+$719.00-1%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>$289.00
+$369.00-22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>44203</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$169.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>$219.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>$24.90
+$29.90-17%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>$709.00
+$719.00-1%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>$289.00
+$369.00-22%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="n"/>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -1134,6 +1134,121 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$169.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>$219.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>$24.90
+$29.90-17%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>$851.00
+$889.00-4%</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>$289.00
+$369.00-22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$169.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>$219.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>$24.90</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>$851.00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>$851.00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>$851.00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>$289.00</t>
+        </is>
+      </c>
+    </row>
     <row r="19">
       <c r="B19" s="1" t="n"/>
     </row>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -1249,6 +1249,138 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>44208</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$169.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$39.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>$219.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>$24.90</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>$851.00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>$851.00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>$851.00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>$289.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$169.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$31.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>$219.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>$24.90</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>$615.00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>$615.00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>$615.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>$299.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>$59.90</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$169.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$31.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$45.00</t>
+        </is>
+      </c>
+    </row>
     <row r="19">
       <c r="B19" s="1" t="n"/>
     </row>
